--- a/biology/Botanique/Barkeria/Barkeria.xlsx
+++ b/biology/Botanique/Barkeria/Barkeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barkeria est un genre de plantes de la famille des Orchidaceae.
 Il a été nommé en hommage à George Barker (en) (1776-1845), horticulteur anglais du XIXe siècle.
@@ -515,9 +527,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (11 octobre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (11 octobre 2021) :
 Barkeria archilarum Chiron
 Barkeria barkeriola Rchb. f.
 Barkeria delpinalii Archila &amp; Chiron
@@ -535,7 +549,7 @@
 Barkeria strophinx (Rchb. f.) Halb.
 Barkeria uniflora (La Llave &amp; Lex.) Dressler &amp; Halb.
 Barkeria whartoniana (C. Schweinf.) Soto Arenas
-Selon World Checklist of Selected Plant Families (WCSP)  (11 octobre 2021)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (11 octobre 2021) :
 Barkeria archilarum Chiron (2011)
 Barkeria barkeriola Rchb.f., Gard. Chron., n.s. (1884)
 Barkeria dorotheae Halb., Orquidea (Mexico City), n.s. (1976)
@@ -554,7 +568,7 @@
 Barkeria strophinx (Rchb.f.) Halb., Orquidea (Mexico City), n.s. (1977)
 Barkeria uniflora (Lex.) Dressler &amp; Halb., Orquidea (Mexico City), n.s. (1977)
 Barkeria whartoniana (C.Schweinf.) Soto Arenas, Orquidea (Mexico City), n.s. (1993)
-Selon NCBI  (11 octobre 2021)[3] :
+Selon NCBI  (11 octobre 2021) :
 Barkeria barkeriola Rchb.f.
 Barkeria dorotheae Halb.
 Barkeria lindleyana Bateman ex Lindl.
@@ -569,7 +583,7 @@
 Barkeria uniflora (Lex.) Dressler &amp; Halb.
 Barkeria vanneriana Barkeria lindleyana subsp. vanneriana (Rchb.f.) Thien
 Barkeria whartoniana (C.Schweinf.) Soto Arenas
-Selon The Plant List            (11 octobre 2021)[4] :
+Selon The Plant List            (11 octobre 2021) :
 Barkeria archilarum Chiron
 Barkeria barkeriola Rchb.f.
 Barkeria delpinalii Archila &amp; Chiron
@@ -587,7 +601,7 @@
 Barkeria strophinx (Rchb.f.) Halb.
 Barkeria uniflora (Lex.) Dressler &amp; Halbinger
 Barkeria whartoniana (C.Schweinf.) Soto Arenas
-Selon Tropicos                                           (11 octobre 2021)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 octobre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Barkeria archilarum Chiron
 Barkeria barkeriola Rchb. f.
 Barkeria chinensis (Lindl.) Thien
